--- a/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA67452A-5298-4844-9BFC-0D6FB53281B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C51A5E-2455-4084-AE0C-E42981AA6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B0FC4EE-DA08-4C49-BD6F-5BCE0D225447}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D88784C-BFEE-483A-A3DE-7DE7A585C140}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="305">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -77,907 +77,877 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6513C6B3-633A-44CF-842B-FD9457FCFE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A97787-C939-4BB9-A839-946F8A702886}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2013,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +1998,13 @@
         <v>12722</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2043,13 +2013,13 @@
         <v>4895</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2058,13 +2028,13 @@
         <v>17617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,7 +2090,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2132,13 +2102,13 @@
         <v>6130</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2147,13 +2117,13 @@
         <v>8896</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2162,13 +2132,13 @@
         <v>15026</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2153,13 @@
         <v>37875</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -2198,13 +2168,13 @@
         <v>45878</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2213,13 +2183,13 @@
         <v>83754</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2204,13 @@
         <v>322746</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>505</v>
@@ -2249,13 +2219,13 @@
         <v>345402</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
@@ -2264,13 +2234,13 @@
         <v>668148</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2255,13 @@
         <v>183493</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -2300,13 +2270,13 @@
         <v>174136</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>430</v>
@@ -2315,13 +2285,13 @@
         <v>357629</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,10 +2306,10 @@
         <v>7008</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>142</v>
@@ -2455,7 +2425,7 @@
         <v>8205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>153</v>
@@ -2473,10 +2443,10 @@
         <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2461,13 @@
         <v>56425</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -2506,13 +2476,13 @@
         <v>70948</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
@@ -2521,13 +2491,13 @@
         <v>127373</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2512,13 @@
         <v>408392</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>691</v>
@@ -2557,13 +2527,13 @@
         <v>446478</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1095</v>
@@ -2572,13 +2542,13 @@
         <v>854870</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2563,13 @@
         <v>185515</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>323</v>
@@ -2608,13 +2578,13 @@
         <v>208888</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>509</v>
@@ -2623,13 +2593,13 @@
         <v>394403</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2614,13 @@
         <v>66999</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2659,13 +2629,13 @@
         <v>12335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2674,13 +2644,13 @@
         <v>79333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2706,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2718,13 @@
         <v>4939</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -2763,13 +2733,13 @@
         <v>6102</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -2781,10 +2751,10 @@
         <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2769,13 @@
         <v>57347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -2814,13 +2784,13 @@
         <v>66689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -2829,13 +2799,13 @@
         <v>124035</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2820,13 @@
         <v>352183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>622</v>
@@ -2865,13 +2835,13 @@
         <v>365008</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>1011</v>
@@ -2880,13 +2850,13 @@
         <v>717190</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2871,13 @@
         <v>170122</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>238</v>
@@ -2916,13 +2886,13 @@
         <v>150198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
@@ -2931,13 +2901,13 @@
         <v>320320</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2922,13 @@
         <v>15566</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -2967,13 +2937,13 @@
         <v>7832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -2982,13 +2952,13 @@
         <v>23398</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3014,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3059,10 +3029,10 @@
         <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3071,13 +3041,13 @@
         <v>8879</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3089,10 +3059,10 @@
         <v>150</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3077,13 @@
         <v>70981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>266</v>
@@ -3122,13 +3092,13 @@
         <v>137872</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>373</v>
@@ -3137,13 +3107,13 @@
         <v>208853</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,16 +3125,16 @@
         <v>619</v>
       </c>
       <c r="D36" s="7">
-        <v>420225</v>
+        <v>420226</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="H36" s="7">
         <v>964</v>
@@ -3173,13 +3143,13 @@
         <v>497590</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>1583</v>
@@ -3188,13 +3158,13 @@
         <v>917815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,16 +3176,16 @@
         <v>275</v>
       </c>
       <c r="D37" s="7">
-        <v>189188</v>
+        <v>189189</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>434</v>
@@ -3224,13 +3194,13 @@
         <v>366416</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>709</v>
@@ -3239,13 +3209,13 @@
         <v>555604</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3230,13 @@
         <v>10316</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3275,13 +3245,13 @@
         <v>14049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>41</v>
@@ -3290,13 +3260,13 @@
         <v>24365</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3278,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -3364,13 +3334,13 @@
         <v>28924</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="H40" s="7">
         <v>58</v>
@@ -3379,13 +3349,13 @@
         <v>39570</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M40" s="7">
         <v>90</v>
@@ -3394,13 +3364,13 @@
         <v>68494</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3385,13 @@
         <v>272787</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="H41" s="7">
         <v>581</v>
@@ -3430,13 +3400,13 @@
         <v>387218</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M41" s="7">
         <v>869</v>
@@ -3445,13 +3415,13 @@
         <v>660005</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3436,13 @@
         <v>1966612</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>3181</v>
@@ -3481,13 +3451,13 @@
         <v>2164455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>5186</v>
@@ -3496,13 +3466,13 @@
         <v>4131067</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3487,13 @@
         <v>992794</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H43" s="7">
         <v>1449</v>
@@ -3532,13 +3502,13 @@
         <v>1151591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M43" s="7">
         <v>2431</v>
@@ -3547,13 +3517,13 @@
         <v>2144384</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3538,13 @@
         <v>124112</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H44" s="7">
         <v>86</v>
@@ -3583,13 +3553,13 @@
         <v>58822</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M44" s="7">
         <v>155</v>
@@ -3598,13 +3568,13 @@
         <v>182933</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3630,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C51A5E-2455-4084-AE0C-E42981AA6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2185B48D-B4E7-470C-B78D-DA02C651754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D88784C-BFEE-483A-A3DE-7DE7A585C140}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1BEA4C5-BFFA-4550-AD37-7713596CC0AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A97787-C939-4BB9-A839-946F8A702886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75775A83-0E95-4AC4-8DBC-45BEBEF84616}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2185B48D-B4E7-470C-B78D-DA02C651754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB13026-8F1B-4F91-89FB-D0687608F742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1BEA4C5-BFFA-4550-AD37-7713596CC0AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A197913-3AA5-46BF-BD64-DE937B182C08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -77,877 +77,907 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1362,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75775A83-0E95-4AC4-8DBC-45BEBEF84616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA60D9DD-D144-4B06-8DB3-EA522B869A7C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,7 +2013,7 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2028,13 @@
         <v>12722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2013,13 +2043,13 @@
         <v>4895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2028,13 +2058,13 @@
         <v>17617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2102,13 +2132,13 @@
         <v>6130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2117,13 +2147,13 @@
         <v>8896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2132,13 +2162,13 @@
         <v>15026</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2183,13 @@
         <v>37875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -2168,13 +2198,13 @@
         <v>45878</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -2183,13 +2213,13 @@
         <v>83754</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2234,13 @@
         <v>322746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>505</v>
@@ -2219,13 +2249,13 @@
         <v>345402</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
@@ -2234,13 +2264,13 @@
         <v>668148</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2285,13 @@
         <v>183493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -2270,13 +2300,13 @@
         <v>174136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>430</v>
@@ -2285,13 +2315,13 @@
         <v>357629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,10 +2336,10 @@
         <v>7008</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>142</v>
@@ -2425,7 +2455,7 @@
         <v>8205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>153</v>
@@ -2443,10 +2473,10 @@
         <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2491,13 @@
         <v>56425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -2476,13 +2506,13 @@
         <v>70948</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
@@ -2491,13 +2521,13 @@
         <v>127373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2542,13 @@
         <v>408392</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>691</v>
@@ -2527,13 +2557,13 @@
         <v>446478</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1095</v>
@@ -2542,13 +2572,13 @@
         <v>854870</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2593,13 @@
         <v>185515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>323</v>
@@ -2578,13 +2608,13 @@
         <v>208888</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>509</v>
@@ -2593,13 +2623,13 @@
         <v>394403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2644,13 @@
         <v>66999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2629,13 +2659,13 @@
         <v>12335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2644,13 +2674,13 @@
         <v>79333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2736,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2748,13 @@
         <v>4939</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -2733,13 +2763,13 @@
         <v>6102</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -2751,10 +2781,10 @@
         <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2799,13 @@
         <v>57347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
@@ -2784,13 +2814,13 @@
         <v>66689</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -2799,13 +2829,13 @@
         <v>124035</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2850,13 @@
         <v>352183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>622</v>
@@ -2835,13 +2865,13 @@
         <v>365008</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>1011</v>
@@ -2850,13 +2880,13 @@
         <v>717190</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2901,13 @@
         <v>170122</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>238</v>
@@ -2886,13 +2916,13 @@
         <v>150198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
@@ -2901,13 +2931,13 @@
         <v>320320</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2952,13 @@
         <v>15566</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -2937,13 +2967,13 @@
         <v>7832</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -2952,13 +2982,13 @@
         <v>23398</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +3044,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3029,10 +3059,10 @@
         <v>155</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -3041,13 +3071,13 @@
         <v>8879</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -3059,10 +3089,10 @@
         <v>150</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3107,13 @@
         <v>70981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>266</v>
@@ -3092,13 +3122,13 @@
         <v>137872</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>373</v>
@@ -3107,13 +3137,13 @@
         <v>208853</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,16 +3155,16 @@
         <v>619</v>
       </c>
       <c r="D36" s="7">
-        <v>420226</v>
+        <v>420225</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>964</v>
@@ -3143,13 +3173,13 @@
         <v>497590</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>1583</v>
@@ -3158,13 +3188,13 @@
         <v>917815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,16 +3206,16 @@
         <v>275</v>
       </c>
       <c r="D37" s="7">
-        <v>189189</v>
+        <v>189188</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>434</v>
@@ -3194,13 +3224,13 @@
         <v>366416</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>709</v>
@@ -3209,13 +3239,13 @@
         <v>555604</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3260,13 @@
         <v>10316</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3245,13 +3275,13 @@
         <v>14049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M38" s="7">
         <v>41</v>
@@ -3260,13 +3290,13 @@
         <v>24365</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3308,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -3334,13 +3364,13 @@
         <v>28924</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="H40" s="7">
         <v>58</v>
@@ -3349,13 +3379,13 @@
         <v>39570</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>103</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>90</v>
@@ -3364,13 +3394,13 @@
         <v>68494</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3415,13 @@
         <v>272787</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>581</v>
@@ -3400,13 +3430,13 @@
         <v>387218</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>869</v>
@@ -3415,13 +3445,13 @@
         <v>660005</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3466,13 @@
         <v>1966612</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>3181</v>
@@ -3451,13 +3481,13 @@
         <v>2164455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>5186</v>
@@ -3466,13 +3496,13 @@
         <v>4131067</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3517,13 @@
         <v>992794</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H43" s="7">
         <v>1449</v>
@@ -3502,13 +3532,13 @@
         <v>1151591</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>2431</v>
@@ -3517,13 +3547,13 @@
         <v>2144384</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3568,13 @@
         <v>124112</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H44" s="7">
         <v>86</v>
@@ -3553,13 +3583,13 @@
         <v>58822</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>155</v>
@@ -3568,13 +3598,13 @@
         <v>182933</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3660,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB13026-8F1B-4F91-89FB-D0687608F742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBBBDEDA-6D96-4230-AE48-E9584886460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A197913-3AA5-46BF-BD64-DE937B182C08}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3B53406D-BA01-4149-84DC-20CA8969B204}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="356">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -65,919 +65,1042 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>28,04%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>9,02%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>29,42%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,8 +1515,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA60D9DD-D144-4B06-8DB3-EA522B869A7C}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0FFFF5-6CC6-4619-862D-360962740249}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1513,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2198</v>
+        <v>2353</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1528,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1905</v>
+        <v>1771</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1543,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4103</v>
+        <v>4124</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1564,7 +1687,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>23228</v>
+        <v>25439</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1579,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>30665</v>
+        <v>30687</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1594,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>53893</v>
+        <v>56126</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1615,7 +1738,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>213383</v>
+        <v>228373</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1630,7 +1753,7 @@
         <v>125</v>
       </c>
       <c r="I6" s="7">
-        <v>213376</v>
+        <v>188094</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1645,7 +1768,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>426759</v>
+        <v>416467</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1666,7 +1789,7 @@
         <v>59</v>
       </c>
       <c r="D7" s="7">
-        <v>127367</v>
+        <v>134049</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1681,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>97547</v>
+        <v>82439</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1696,7 +1819,7 @@
         <v>118</v>
       </c>
       <c r="N7" s="7">
-        <v>224914</v>
+        <v>216488</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1717,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>11502</v>
+        <v>9772</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1732,7 +1855,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>11464</v>
+        <v>10210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>53</v>
@@ -1747,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>22966</v>
+        <v>19981</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>56</v>
@@ -1768,7 +1891,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -1783,7 +1906,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -1798,7 +1921,7 @@
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -1821,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>1954</v>
+        <v>1993</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1836,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5583</v>
+        <v>5199</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1851,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>7537</v>
+        <v>7192</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1872,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>26931</v>
+        <v>26823</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1887,7 +2010,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>35166</v>
+        <v>32138</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1902,7 +2025,7 @@
         <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>62097</v>
+        <v>58961</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1923,7 +2046,7 @@
         <v>174</v>
       </c>
       <c r="D12" s="7">
-        <v>249682</v>
+        <v>251667</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1938,7 +2061,7 @@
         <v>274</v>
       </c>
       <c r="I12" s="7">
-        <v>296602</v>
+        <v>272745</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1953,7 +2076,7 @@
         <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>546284</v>
+        <v>524412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1974,7 +2097,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="7">
-        <v>137107</v>
+        <v>130977</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>88</v>
@@ -1989,7 +2112,7 @@
         <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>154406</v>
+        <v>195145</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2004,7 +2127,7 @@
         <v>239</v>
       </c>
       <c r="N13" s="7">
-        <v>291513</v>
+        <v>326122</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>94</v>
@@ -2025,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>12722</v>
+        <v>12086</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2040,31 +2163,31 @@
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>4895</v>
+        <v>4490</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>17617</v>
+        <v>16576</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,7 +2199,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -2091,7 +2214,7 @@
         <v>458</v>
       </c>
       <c r="I15" s="7">
-        <v>496652</v>
+        <v>509718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -2106,7 +2229,7 @@
         <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>925048</v>
+        <v>933265</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -2120,7 +2243,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2129,28 +2252,28 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>6130</v>
+        <v>5927</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>8896</v>
+        <v>8337</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>111</v>
@@ -2159,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>15026</v>
+        <v>14264</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -2180,7 +2303,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>37875</v>
+        <v>37816</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -2195,7 +2318,7 @@
         <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>45878</v>
+        <v>42192</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2204,22 +2327,22 @@
         <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
       </c>
       <c r="N17" s="7">
-        <v>83754</v>
+        <v>80008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,46 +2354,46 @@
         <v>320</v>
       </c>
       <c r="D18" s="7">
-        <v>322746</v>
+        <v>313956</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>505</v>
       </c>
       <c r="I18" s="7">
-        <v>345402</v>
+        <v>323781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>825</v>
       </c>
       <c r="N18" s="7">
-        <v>668148</v>
+        <v>637737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,46 +2405,46 @@
         <v>177</v>
       </c>
       <c r="D19" s="7">
-        <v>183493</v>
+        <v>171788</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
       </c>
       <c r="I19" s="7">
-        <v>174136</v>
+        <v>159572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>430</v>
       </c>
       <c r="N19" s="7">
-        <v>357629</v>
+        <v>331359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,46 +2456,46 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>7008</v>
+        <v>6851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
       </c>
       <c r="I20" s="7">
-        <v>8246</v>
+        <v>7727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
       </c>
       <c r="N20" s="7">
-        <v>15254</v>
+        <v>14578</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2507,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2399,7 +2522,7 @@
         <v>845</v>
       </c>
       <c r="I21" s="7">
-        <v>582559</v>
+        <v>541608</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2414,7 +2537,7 @@
         <v>1391</v>
       </c>
       <c r="N21" s="7">
-        <v>1139811</v>
+        <v>1077946</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -2428,7 +2551,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2437,46 +2560,46 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>6659</v>
+        <v>6596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>8205</v>
+        <v>7480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>14864</v>
+        <v>14076</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2611,13 @@
         <v>54</v>
       </c>
       <c r="D23" s="7">
-        <v>56425</v>
+        <v>53618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>160</v>
@@ -2503,31 +2626,31 @@
         <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>70948</v>
+        <v>63842</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>149</v>
       </c>
       <c r="N23" s="7">
-        <v>127373</v>
+        <v>117460</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,46 +2662,46 @@
         <v>404</v>
       </c>
       <c r="D24" s="7">
-        <v>408392</v>
+        <v>389725</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>691</v>
       </c>
       <c r="I24" s="7">
-        <v>446478</v>
+        <v>438766</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1095</v>
       </c>
       <c r="N24" s="7">
-        <v>854870</v>
+        <v>828492</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,46 +2713,46 @@
         <v>186</v>
       </c>
       <c r="D25" s="7">
-        <v>185515</v>
+        <v>178488</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>323</v>
       </c>
       <c r="I25" s="7">
-        <v>208888</v>
+        <v>190995</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>509</v>
       </c>
       <c r="N25" s="7">
-        <v>394403</v>
+        <v>369483</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,46 +2764,46 @@
         <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>66999</v>
+        <v>259360</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
       </c>
       <c r="I26" s="7">
-        <v>12335</v>
+        <v>11414</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
       </c>
       <c r="N26" s="7">
-        <v>79333</v>
+        <v>270774</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2815,7 @@
         <v>665</v>
       </c>
       <c r="D27" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -2707,7 +2830,7 @@
         <v>1140</v>
       </c>
       <c r="I27" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -2722,7 +2845,7 @@
         <v>1805</v>
       </c>
       <c r="N27" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2736,7 +2859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2745,46 +2868,46 @@
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>4939</v>
+        <v>4577</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>6102</v>
+        <v>5827</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>11041</v>
+        <v>10404</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,46 +2919,46 @@
         <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>57347</v>
+        <v>54343</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>115</v>
       </c>
       <c r="I29" s="7">
-        <v>66689</v>
+        <v>61551</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
       </c>
       <c r="N29" s="7">
-        <v>124035</v>
+        <v>115893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,46 +2970,46 @@
         <v>389</v>
       </c>
       <c r="D30" s="7">
-        <v>352183</v>
+        <v>331841</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>622</v>
       </c>
       <c r="I30" s="7">
-        <v>365008</v>
+        <v>336572</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>1011</v>
       </c>
       <c r="N30" s="7">
-        <v>717190</v>
+        <v>668413</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,46 +3021,46 @@
         <v>188</v>
       </c>
       <c r="D31" s="7">
-        <v>170122</v>
+        <v>156493</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>238</v>
       </c>
       <c r="I31" s="7">
-        <v>150198</v>
+        <v>135752</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>426</v>
       </c>
       <c r="N31" s="7">
-        <v>320320</v>
+        <v>292245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,46 +3072,46 @@
         <v>17</v>
       </c>
       <c r="D32" s="7">
-        <v>15566</v>
+        <v>13980</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
       </c>
       <c r="I32" s="7">
-        <v>7832</v>
+        <v>7061</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
       </c>
       <c r="N32" s="7">
-        <v>23398</v>
+        <v>21041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3123,7 @@
         <v>663</v>
       </c>
       <c r="D33" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -3015,7 +3138,7 @@
         <v>1000</v>
       </c>
       <c r="I33" s="7">
-        <v>595829</v>
+        <v>546762</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -3030,7 +3153,7 @@
         <v>1663</v>
       </c>
       <c r="N33" s="7">
-        <v>1195985</v>
+        <v>1107995</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -3044,55 +3167,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>7043</v>
+        <v>2879</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I34" s="7">
-        <v>8879</v>
+        <v>4472</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N34" s="7">
-        <v>15923</v>
+        <v>7351</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3224,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D35" s="7">
-        <v>70981</v>
+        <v>40323</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="I35" s="7">
-        <v>137872</v>
+        <v>62369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
-        <v>373</v>
+        <v>187</v>
       </c>
       <c r="N35" s="7">
-        <v>208853</v>
+        <v>102692</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3275,49 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>619</v>
+        <v>342</v>
       </c>
       <c r="D36" s="7">
-        <v>420225</v>
+        <v>222909</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
-        <v>964</v>
+        <v>469</v>
       </c>
       <c r="I36" s="7">
-        <v>497590</v>
+        <v>220959</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
-        <v>1583</v>
+        <v>811</v>
       </c>
       <c r="N36" s="7">
-        <v>917815</v>
+        <v>443868</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3326,49 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="D37" s="7">
-        <v>189188</v>
+        <v>97639</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
-        <v>434</v>
+        <v>210</v>
       </c>
       <c r="I37" s="7">
-        <v>366416</v>
+        <v>313816</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
-        <v>709</v>
+        <v>364</v>
       </c>
       <c r="N37" s="7">
-        <v>555604</v>
+        <v>411455</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3377,49 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D38" s="7">
-        <v>10316</v>
+        <v>4415</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I38" s="7">
-        <v>14049</v>
+        <v>5065</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N38" s="7">
-        <v>24365</v>
+        <v>9480</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -3320,10 +3443,10 @@
         <v>59</v>
       </c>
       <c r="H39" s="7">
-        <v>1705</v>
+        <v>824</v>
       </c>
       <c r="I39" s="7">
-        <v>1024806</v>
+        <v>606682</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -3335,10 +3458,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>2733</v>
+        <v>1394</v>
       </c>
       <c r="N39" s="7">
-        <v>1722560</v>
+        <v>974847</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -3352,55 +3475,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D40" s="7">
-        <v>28924</v>
+        <v>3772</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I40" s="7">
-        <v>39570</v>
+        <v>3624</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="N40" s="7">
-        <v>68494</v>
+        <v>7396</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3532,49 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
+        <v>46</v>
+      </c>
+      <c r="D41" s="7">
+        <v>26369</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="7">
+        <v>140</v>
+      </c>
+      <c r="I41" s="7">
+        <v>63720</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="7">
-        <v>272787</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="7">
-        <v>581</v>
-      </c>
-      <c r="I41" s="7">
-        <v>387218</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
-        <v>869</v>
+        <v>186</v>
       </c>
       <c r="N41" s="7">
-        <v>660005</v>
+        <v>90088</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3583,49 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>2005</v>
+        <v>277</v>
       </c>
       <c r="D42" s="7">
-        <v>1966612</v>
+        <v>170083</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
-        <v>3181</v>
+        <v>495</v>
       </c>
       <c r="I42" s="7">
-        <v>2164455</v>
+        <v>232741</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
-        <v>5186</v>
+        <v>772</v>
       </c>
       <c r="N42" s="7">
-        <v>4131067</v>
+        <v>402824</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3634,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>982</v>
+        <v>121</v>
       </c>
       <c r="D43" s="7">
-        <v>992794</v>
+        <v>77043</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
-        <v>1449</v>
+        <v>224</v>
       </c>
       <c r="I43" s="7">
-        <v>1151591</v>
+        <v>118288</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="M43" s="7">
-        <v>2431</v>
+        <v>345</v>
       </c>
       <c r="N43" s="7">
-        <v>2144384</v>
+        <v>195331</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3685,49 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D44" s="7">
-        <v>124112</v>
+        <v>5492</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I44" s="7">
-        <v>58822</v>
+        <v>7459</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="M44" s="7">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="N44" s="7">
-        <v>182933</v>
+        <v>12951</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,63 +3736,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>458</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>881</v>
+      </c>
+      <c r="I45" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N45" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>32</v>
+      </c>
+      <c r="D46" s="7">
+        <v>28097</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="7">
+        <v>58</v>
+      </c>
+      <c r="I46" s="7">
+        <v>36710</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="7">
+        <v>90</v>
+      </c>
+      <c r="N46" s="7">
+        <v>64807</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>288</v>
+      </c>
+      <c r="D47" s="7">
+        <v>264731</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="7">
+        <v>581</v>
+      </c>
+      <c r="I47" s="7">
+        <v>356498</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M47" s="7">
+        <v>869</v>
+      </c>
+      <c r="N47" s="7">
+        <v>621230</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2005</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1908556</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H48" s="7">
+        <v>3181</v>
+      </c>
+      <c r="I48" s="7">
+        <v>2013657</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" s="7">
+        <v>5186</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3922213</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>982</v>
+      </c>
+      <c r="D49" s="7">
+        <v>946477</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1449</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1196008</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2431</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2142484</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>69</v>
+      </c>
+      <c r="D50" s="7">
+        <v>311956</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H50" s="7">
+        <v>86</v>
+      </c>
+      <c r="I50" s="7">
+        <v>53426</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M50" s="7">
+        <v>155</v>
+      </c>
+      <c r="N50" s="7">
+        <v>365382</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3376</v>
       </c>
-      <c r="D45" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>5355</v>
       </c>
-      <c r="I45" s="7">
-        <v>3801656</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3656299</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>8731</v>
       </c>
-      <c r="N45" s="7">
-        <v>7186884</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>314</v>
+      <c r="N51" s="7">
+        <v>7116116</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
